--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dll4-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dll4-Notch1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.72517666666667</v>
+        <v>44.29505033333334</v>
       </c>
       <c r="H2">
-        <v>155.17553</v>
+        <v>132.885151</v>
       </c>
       <c r="I2">
-        <v>0.9871016109990332</v>
+        <v>0.9830698162761968</v>
       </c>
       <c r="J2">
-        <v>0.9871016109990332</v>
+        <v>0.9830698162761969</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>68.00339000000001</v>
+        <v>58.95713633333333</v>
       </c>
       <c r="N2">
-        <v>204.01017</v>
+        <v>176.871409</v>
       </c>
       <c r="O2">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083892</v>
       </c>
       <c r="P2">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083893</v>
       </c>
       <c r="Q2">
-        <v>3517.487361682234</v>
+        <v>2611.509321394195</v>
       </c>
       <c r="R2">
-        <v>31657.3862551401</v>
+        <v>23503.58389254776</v>
       </c>
       <c r="S2">
-        <v>0.6185141480700256</v>
+        <v>0.4780812988573817</v>
       </c>
       <c r="T2">
-        <v>0.6185141480700256</v>
+        <v>0.4780812988573818</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.72517666666667</v>
+        <v>44.29505033333334</v>
       </c>
       <c r="H3">
-        <v>155.17553</v>
+        <v>132.885151</v>
       </c>
       <c r="I3">
-        <v>0.9871016109990332</v>
+        <v>0.9830698162761968</v>
       </c>
       <c r="J3">
-        <v>0.9871016109990332</v>
+        <v>0.9830698162761969</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>26.97459</v>
       </c>
       <c r="O3">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679004</v>
       </c>
       <c r="P3">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679005</v>
       </c>
       <c r="Q3">
-        <v>465.0884777536333</v>
+        <v>398.2802739236766</v>
       </c>
       <c r="R3">
-        <v>4185.7962997827</v>
+        <v>3584.52246531309</v>
       </c>
       <c r="S3">
-        <v>0.08178104823591995</v>
+        <v>0.07291199350000846</v>
       </c>
       <c r="T3">
-        <v>0.08178104823591995</v>
+        <v>0.07291199350000849</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.72517666666667</v>
+        <v>44.29505033333334</v>
       </c>
       <c r="H4">
-        <v>155.17553</v>
+        <v>132.885151</v>
       </c>
       <c r="I4">
-        <v>0.9871016109990332</v>
+        <v>0.9830698162761968</v>
       </c>
       <c r="J4">
-        <v>0.9871016109990332</v>
+        <v>0.9830698162761969</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.764887</v>
+        <v>42.51661933333333</v>
       </c>
       <c r="N4">
-        <v>62.294661</v>
+        <v>127.549858</v>
       </c>
       <c r="O4">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="P4">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="Q4">
-        <v>1074.06744853837</v>
+        <v>1883.275793373173</v>
       </c>
       <c r="R4">
-        <v>9666.607036845331</v>
+        <v>16949.48214035856</v>
       </c>
       <c r="S4">
-        <v>0.188863766829497</v>
+        <v>0.3447657375857429</v>
       </c>
       <c r="T4">
-        <v>0.188863766829497</v>
+        <v>0.344765737585743</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>51.72517666666667</v>
+        <v>44.29505033333334</v>
       </c>
       <c r="H5">
-        <v>155.17553</v>
+        <v>132.885151</v>
       </c>
       <c r="I5">
-        <v>0.9871016109990332</v>
+        <v>0.9830698162761968</v>
       </c>
       <c r="J5">
-        <v>0.9871016109990332</v>
+        <v>0.9830698162761969</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.76843933333333</v>
+        <v>10.76719366666667</v>
       </c>
       <c r="N5">
-        <v>32.305318</v>
+        <v>32.301581</v>
       </c>
       <c r="O5">
-        <v>0.09922245772090686</v>
+        <v>0.0888144309666542</v>
       </c>
       <c r="P5">
-        <v>0.09922245772090688</v>
+        <v>0.08881443096665421</v>
       </c>
       <c r="Q5">
-        <v>556.9994269409489</v>
+        <v>476.9333854137479</v>
       </c>
       <c r="R5">
-        <v>5012.99484246854</v>
+        <v>4292.400468723731</v>
       </c>
       <c r="S5">
-        <v>0.09794264786359062</v>
+        <v>0.08731078633306372</v>
       </c>
       <c r="T5">
-        <v>0.09794264786359064</v>
+        <v>0.08731078633306373</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.9210930000000001</v>
       </c>
       <c r="I6">
-        <v>0.005859251031267188</v>
+        <v>0.006814145293655052</v>
       </c>
       <c r="J6">
-        <v>0.005859251031267188</v>
+        <v>0.006814145293655053</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>68.00339000000001</v>
+        <v>58.95713633333333</v>
       </c>
       <c r="N6">
-        <v>204.01017</v>
+        <v>176.871409</v>
       </c>
       <c r="O6">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083892</v>
       </c>
       <c r="P6">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083893</v>
       </c>
       <c r="Q6">
-        <v>20.87914883509</v>
+        <v>18.10166852555967</v>
       </c>
       <c r="R6">
-        <v>187.91233951581</v>
+        <v>162.915016730037</v>
       </c>
       <c r="S6">
-        <v>0.003671384606762832</v>
+        <v>0.003313818997040853</v>
       </c>
       <c r="T6">
-        <v>0.003671384606762832</v>
+        <v>0.003313818997040854</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.9210930000000001</v>
       </c>
       <c r="I7">
-        <v>0.005859251031267188</v>
+        <v>0.006814145293655052</v>
       </c>
       <c r="J7">
-        <v>0.005859251031267188</v>
+        <v>0.006814145293655053</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>26.97459</v>
       </c>
       <c r="O7">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679004</v>
       </c>
       <c r="P7">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679005</v>
       </c>
       <c r="Q7">
         <v>2.76067844743</v>
@@ -883,10 +883,10 @@
         <v>24.84610602687</v>
       </c>
       <c r="S7">
-        <v>0.0004854370470831851</v>
+        <v>0.0005053892502173045</v>
       </c>
       <c r="T7">
-        <v>0.0004854370470831851</v>
+        <v>0.0005053892502173047</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.9210930000000001</v>
       </c>
       <c r="I8">
-        <v>0.005859251031267188</v>
+        <v>0.006814145293655052</v>
       </c>
       <c r="J8">
-        <v>0.005859251031267188</v>
+        <v>0.006814145293655053</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.764887</v>
+        <v>42.51661933333333</v>
       </c>
       <c r="N8">
-        <v>62.294661</v>
+        <v>127.549858</v>
       </c>
       <c r="O8">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="P8">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="Q8">
-        <v>6.375464020497</v>
+        <v>13.05392015053267</v>
       </c>
       <c r="R8">
-        <v>57.379176184473</v>
+        <v>117.485281354794</v>
       </c>
       <c r="S8">
-        <v>0.001121060089695082</v>
+        <v>0.002389742609616816</v>
       </c>
       <c r="T8">
-        <v>0.001121060089695082</v>
+        <v>0.002389742609616817</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.9210930000000001</v>
       </c>
       <c r="I9">
-        <v>0.005859251031267188</v>
+        <v>0.006814145293655052</v>
       </c>
       <c r="J9">
-        <v>0.005859251031267188</v>
+        <v>0.006814145293655053</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.76843933333333</v>
+        <v>10.76719366666667</v>
       </c>
       <c r="N9">
-        <v>32.305318</v>
+        <v>32.301581</v>
       </c>
       <c r="O9">
-        <v>0.09922245772090686</v>
+        <v>0.0888144309666542</v>
       </c>
       <c r="P9">
-        <v>0.09922245772090688</v>
+        <v>0.08881443096665421</v>
       </c>
       <c r="Q9">
-        <v>3.306244696952667</v>
+        <v>3.305862238670333</v>
       </c>
       <c r="R9">
-        <v>29.756202272574</v>
+        <v>29.752760148033</v>
       </c>
       <c r="S9">
-        <v>0.0005813692877260885</v>
+        <v>0.0006051944367800782</v>
       </c>
       <c r="T9">
-        <v>0.0005813692877260886</v>
+        <v>0.0006051944367800784</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3067976666666667</v>
+        <v>0.3685326666666667</v>
       </c>
       <c r="H10">
-        <v>0.920393</v>
+        <v>1.105598</v>
       </c>
       <c r="I10">
-        <v>0.005854798195644849</v>
+        <v>0.008179093108268589</v>
       </c>
       <c r="J10">
-        <v>0.005854798195644849</v>
+        <v>0.008179093108268589</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.00339000000001</v>
+        <v>58.95713633333333</v>
       </c>
       <c r="N10">
-        <v>204.01017</v>
+        <v>176.871409</v>
       </c>
       <c r="O10">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083892</v>
       </c>
       <c r="P10">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083893</v>
       </c>
       <c r="Q10">
-        <v>20.86328137742334</v>
+        <v>21.72763067195356</v>
       </c>
       <c r="R10">
-        <v>187.76953239681</v>
+        <v>195.548676047582</v>
       </c>
       <c r="S10">
-        <v>0.003668594476749105</v>
+        <v>0.00397761317857195</v>
       </c>
       <c r="T10">
-        <v>0.003668594476749105</v>
+        <v>0.00397761317857195</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3067976666666667</v>
+        <v>0.3685326666666667</v>
       </c>
       <c r="H11">
-        <v>0.920393</v>
+        <v>1.105598</v>
       </c>
       <c r="I11">
-        <v>0.005854798195644849</v>
+        <v>0.008179093108268589</v>
       </c>
       <c r="J11">
-        <v>0.005854798195644849</v>
+        <v>0.008179093108268589</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>26.97459</v>
       </c>
       <c r="O11">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679004</v>
       </c>
       <c r="P11">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679005</v>
       </c>
       <c r="Q11">
-        <v>2.758580423763333</v>
+        <v>3.313672528313333</v>
       </c>
       <c r="R11">
-        <v>24.82722381387</v>
+        <v>29.82305275482</v>
       </c>
       <c r="S11">
-        <v>0.0004850681310964626</v>
+        <v>0.0006066242434387749</v>
       </c>
       <c r="T11">
-        <v>0.0004850681310964626</v>
+        <v>0.000606624243438775</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3067976666666667</v>
+        <v>0.3685326666666667</v>
       </c>
       <c r="H12">
-        <v>0.920393</v>
+        <v>1.105598</v>
       </c>
       <c r="I12">
-        <v>0.005854798195644849</v>
+        <v>0.008179093108268589</v>
       </c>
       <c r="J12">
-        <v>0.005854798195644849</v>
+        <v>0.008179093108268589</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>20.764887</v>
+        <v>42.51661933333333</v>
       </c>
       <c r="N12">
-        <v>62.294661</v>
+        <v>127.549858</v>
       </c>
       <c r="O12">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="P12">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="Q12">
-        <v>6.370618880197</v>
+        <v>15.66876310056489</v>
       </c>
       <c r="R12">
-        <v>57.335569921773</v>
+        <v>141.018867905084</v>
       </c>
       <c r="S12">
-        <v>0.001120208121367468</v>
+        <v>0.002868434186023705</v>
       </c>
       <c r="T12">
-        <v>0.001120208121367469</v>
+        <v>0.002868434186023706</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3067976666666667</v>
+        <v>0.3685326666666667</v>
       </c>
       <c r="H13">
-        <v>0.920393</v>
+        <v>1.105598</v>
       </c>
       <c r="I13">
-        <v>0.005854798195644849</v>
+        <v>0.008179093108268589</v>
       </c>
       <c r="J13">
-        <v>0.005854798195644849</v>
+        <v>0.008179093108268589</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.76843933333333</v>
+        <v>10.76719366666667</v>
       </c>
       <c r="N13">
-        <v>32.305318</v>
+        <v>32.301581</v>
       </c>
       <c r="O13">
-        <v>0.09922245772090686</v>
+        <v>0.0888144309666542</v>
       </c>
       <c r="P13">
-        <v>0.09922245772090688</v>
+        <v>0.08881443096665421</v>
       </c>
       <c r="Q13">
-        <v>3.303732061108223</v>
+        <v>3.968062594493111</v>
       </c>
       <c r="R13">
-        <v>29.733588549974</v>
+        <v>35.712563350438</v>
       </c>
       <c r="S13">
-        <v>0.0005809274664318128</v>
+        <v>0.0007264215002341577</v>
       </c>
       <c r="T13">
-        <v>0.0005809274664318128</v>
+        <v>0.0007264215002341578</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.06206066666666666</v>
+        <v>0.08727466666666667</v>
       </c>
       <c r="H14">
-        <v>0.186182</v>
+        <v>0.261824</v>
       </c>
       <c r="I14">
-        <v>0.001184339774054723</v>
+        <v>0.001936945321879485</v>
       </c>
       <c r="J14">
-        <v>0.001184339774054723</v>
+        <v>0.001936945321879485</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>68.00339000000001</v>
+        <v>58.95713633333333</v>
       </c>
       <c r="N14">
-        <v>204.01017</v>
+        <v>176.871409</v>
       </c>
       <c r="O14">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083892</v>
       </c>
       <c r="P14">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083893</v>
       </c>
       <c r="Q14">
-        <v>4.220335718993334</v>
+        <v>5.145464421112889</v>
       </c>
       <c r="R14">
-        <v>37.98302147094</v>
+        <v>46.309179790016</v>
       </c>
       <c r="S14">
-        <v>0.000742102837451069</v>
+        <v>0.0009419649753946933</v>
       </c>
       <c r="T14">
-        <v>0.000742102837451069</v>
+        <v>0.0009419649753946935</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.06206066666666666</v>
+        <v>0.08727466666666667</v>
       </c>
       <c r="H15">
-        <v>0.186182</v>
+        <v>0.261824</v>
       </c>
       <c r="I15">
-        <v>0.001184339774054723</v>
+        <v>0.001936945321879485</v>
       </c>
       <c r="J15">
-        <v>0.001184339774054723</v>
+        <v>0.001936945321879485</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>26.97459</v>
       </c>
       <c r="O15">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679004</v>
       </c>
       <c r="P15">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679005</v>
       </c>
       <c r="Q15">
-        <v>0.5580203461533332</v>
+        <v>0.7847327835733333</v>
       </c>
       <c r="R15">
-        <v>5.02218311538</v>
+        <v>7.06259505216</v>
       </c>
       <c r="S15">
-        <v>9.812216605710994E-05</v>
+        <v>0.0001436587131254885</v>
       </c>
       <c r="T15">
-        <v>9.812216605710994E-05</v>
+        <v>0.0001436587131254885</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.06206066666666666</v>
+        <v>0.08727466666666667</v>
       </c>
       <c r="H16">
-        <v>0.186182</v>
+        <v>0.261824</v>
       </c>
       <c r="I16">
-        <v>0.001184339774054723</v>
+        <v>0.001936945321879485</v>
       </c>
       <c r="J16">
-        <v>0.001184339774054723</v>
+        <v>0.001936945321879485</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>20.764887</v>
+        <v>42.51661933333333</v>
       </c>
       <c r="N16">
-        <v>62.294661</v>
+        <v>127.549858</v>
       </c>
       <c r="O16">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="P16">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="Q16">
-        <v>1.288682730478</v>
+        <v>3.710623780110222</v>
       </c>
       <c r="R16">
-        <v>11.598144574302</v>
+        <v>33.395614020992</v>
       </c>
       <c r="S16">
-        <v>0.0002266016673882113</v>
+        <v>0.0006792929367830536</v>
       </c>
       <c r="T16">
-        <v>0.0002266016673882113</v>
+        <v>0.0006792929367830539</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.06206066666666666</v>
+        <v>0.08727466666666667</v>
       </c>
       <c r="H17">
-        <v>0.186182</v>
+        <v>0.261824</v>
       </c>
       <c r="I17">
-        <v>0.001184339774054723</v>
+        <v>0.001936945321879485</v>
       </c>
       <c r="J17">
-        <v>0.001184339774054723</v>
+        <v>0.001936945321879485</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.76843933333333</v>
+        <v>10.76719366666667</v>
       </c>
       <c r="N17">
-        <v>32.305318</v>
+        <v>32.301581</v>
       </c>
       <c r="O17">
-        <v>0.09922245772090686</v>
+        <v>0.0888144309666542</v>
       </c>
       <c r="P17">
-        <v>0.09922245772090688</v>
+        <v>0.08881443096665421</v>
       </c>
       <c r="Q17">
-        <v>0.6682965239862222</v>
+        <v>0.9397032381937777</v>
       </c>
       <c r="R17">
-        <v>6.014668715876</v>
+        <v>8.457329143743999</v>
       </c>
       <c r="S17">
-        <v>0.0001175131031583332</v>
+        <v>0.0001720286965762493</v>
       </c>
       <c r="T17">
-        <v>0.0001175131031583332</v>
+        <v>0.0001720286965762494</v>
       </c>
     </row>
   </sheetData>
